--- a/nmadb/501361.xlsx
+++ b/nmadb/501361.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="12330"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patricia Rios:</t>
         </r>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 not reported</t>
@@ -124,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +144,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -155,14 +156,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -228,7 +229,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -337,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,14 +512,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="8" customWidth="1"/>
@@ -908,7 +907,7 @@
     <col min="16140" max="16140" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -943,7 +942,7 @@
       <c r="M1"/>
       <c r="N1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="8">
         <v>2003</v>
       </c>
@@ -966,7 +965,10 @@
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
       <c r="D3" s="8">
         <v>3</v>
       </c>
@@ -986,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>2012</v>
       </c>
@@ -1013,7 +1015,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
       <c r="D5" s="8">
         <v>4</v>
       </c>
@@ -1031,7 +1036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>2005</v>
       </c>
@@ -1058,7 +1063,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>2000</v>
       </c>
@@ -1103,7 +1111,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>1993</v>
       </c>
@@ -1134,7 +1145,10 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
       <c r="D11" s="8">
         <v>5</v>
       </c>
@@ -1145,7 +1159,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <v>2003</v>
       </c>
@@ -1165,7 +1179,10 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
+      <c r="C13" s="8">
+        <v>6</v>
+      </c>
       <c r="D13" s="8">
         <v>6</v>
       </c>
@@ -1176,7 +1193,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <v>2004</v>
       </c>
@@ -1196,7 +1213,10 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
       <c r="D15" s="8">
         <v>4</v>
       </c>
@@ -1215,24 +1235,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
